--- a/data/small/l_data09.xlsx
+++ b/data/small/l_data09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\data1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4466FAA-C455-4DF2-8560-A9C7A848A969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DA3A3E-1FEE-41E7-9420-CE466A73C8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="299">
   <si>
     <t>id</t>
   </si>
@@ -258,9 +258,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>-1,1,1,0,0</t>
-  </si>
-  <si>
     <t>0,-1,0,0,0</t>
   </si>
   <si>
@@ -270,33 +267,18 @@
     <t>0,1,0,1,0</t>
   </si>
   <si>
-    <t>-1,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,0,0,0,0</t>
   </si>
   <si>
     <t>0,0,0,0,-1</t>
   </si>
   <si>
-    <t>1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,1,1</t>
   </si>
   <si>
-    <t>-1,0,-1,-1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,0</t>
   </si>
   <si>
-    <t>0,0,1,1,0</t>
-  </si>
-  <si>
     <t>-1,0,0,0,1</t>
   </si>
   <si>
@@ -321,138 +303,60 @@
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1</t>
-  </si>
-  <si>
     <t>1,0,0,-1,1</t>
   </si>
   <si>
     <t>0,0,1,0,1</t>
   </si>
   <si>
-    <t>1,1,0,0,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
-    <t>0,-1,-1,1,1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,0</t>
   </si>
   <si>
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
     <t>0,0,0,1,-1</t>
   </si>
   <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
-    <t>1,0,1,-1,0</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,1</t>
-  </si>
-  <si>
-    <t>-1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>-1,0,-1,1,0</t>
-  </si>
-  <si>
     <t>0,0,0,0,1</t>
   </si>
   <si>
     <t>like1</t>
   </si>
   <si>
-    <t>1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,0,1,0</t>
-  </si>
-  <si>
     <t>0,1,0,0,1</t>
   </si>
   <si>
-    <t>like2</t>
-  </si>
-  <si>
     <t>1,0,1,0,1</t>
   </si>
   <si>
     <t>1,0,0,1,1</t>
   </si>
   <si>
-    <t>1,1,0,1,0</t>
-  </si>
-  <si>
-    <t>1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
-    <t>-1,1,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,-1,-1,-1</t>
-  </si>
-  <si>
-    <t>1,-1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,1,-1,0</t>
   </si>
   <si>
     <t>-1,0,0,-1,-1</t>
   </si>
   <si>
-    <t>0,1,1,0,1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
-    <t>1,1,-1,0,0</t>
-  </si>
-  <si>
     <t>0,0,0,-1,1</t>
   </si>
   <si>
-    <t>1,-1,-1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,1,0</t>
-  </si>
-  <si>
     <t>0,-1,0,-1,1</t>
   </si>
   <si>
-    <t>-1,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,1,-1,1,0</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>-1,0,1,0,0</t>
   </si>
   <si>
@@ -465,57 +369,27 @@
     <t>-1,0,1,0,1</t>
   </si>
   <si>
-    <t>0,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,-1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,1,0,1</t>
   </si>
   <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
-    <t>-1,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,1,1,1,-1</t>
-  </si>
-  <si>
     <t>0,1,1,-1,0</t>
   </si>
   <si>
-    <t>1,1,0,-1,0</t>
-  </si>
-  <si>
     <t>-1,0,-1,0,1</t>
   </si>
   <si>
     <t>1,0,0,0,-1</t>
   </si>
   <si>
-    <t>0,-1,1,-1,0</t>
-  </si>
-  <si>
     <t>-1,-1,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,0,1</t>
   </si>
   <si>
-    <t>1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,-1,0,-1</t>
-  </si>
-  <si>
     <t>like3</t>
   </si>
   <si>
@@ -760,303 +634,6 @@
   </si>
   <si>
     <t>公共体育III</t>
-  </si>
-  <si>
-    <t>曲良东</t>
-  </si>
-  <si>
-    <t>刘美玲</t>
-  </si>
-  <si>
-    <t>龙凤珍</t>
-  </si>
-  <si>
-    <t>钟植任</t>
-  </si>
-  <si>
-    <t>温茜茜</t>
-  </si>
-  <si>
-    <t>韩枫</t>
-  </si>
-  <si>
-    <t>邹强</t>
-  </si>
-  <si>
-    <t>秦董洪</t>
-  </si>
-  <si>
-    <t>徐晨</t>
-  </si>
-  <si>
-    <t>黄华娟</t>
-  </si>
-  <si>
-    <t>张超群</t>
-  </si>
-  <si>
-    <t>陈键</t>
-  </si>
-  <si>
-    <t>鲍冬雪</t>
-  </si>
-  <si>
-    <t>苏伊琳</t>
-  </si>
-  <si>
-    <t>刘洁</t>
-  </si>
-  <si>
-    <t>田蕾</t>
-  </si>
-  <si>
-    <t>黄淑茵</t>
-  </si>
-  <si>
-    <t>刘娜</t>
-  </si>
-  <si>
-    <t>何德牛</t>
-  </si>
-  <si>
-    <t>吴义霞</t>
-  </si>
-  <si>
-    <t>孟华志</t>
-  </si>
-  <si>
-    <t>张秀兰</t>
-  </si>
-  <si>
-    <t>刘景能</t>
-  </si>
-  <si>
-    <t>黄留佳</t>
-  </si>
-  <si>
-    <t>杨蕾蕾</t>
-  </si>
-  <si>
-    <t>梁贤烨</t>
-  </si>
-  <si>
-    <t>宣彦庄</t>
-  </si>
-  <si>
-    <t>周萍</t>
-  </si>
-  <si>
-    <t>孙寿媚</t>
-  </si>
-  <si>
-    <t>李会</t>
-  </si>
-  <si>
-    <t>何磊</t>
-  </si>
-  <si>
-    <t>李承云</t>
-  </si>
-  <si>
-    <t>黄治球</t>
-  </si>
-  <si>
-    <t>苏杰童</t>
-  </si>
-  <si>
-    <t>韦圣贤</t>
-  </si>
-  <si>
-    <t>周卫</t>
-  </si>
-  <si>
-    <t>韦晓萍</t>
-  </si>
-  <si>
-    <t>莫靖林</t>
-  </si>
-  <si>
-    <t>莫愿斌</t>
-  </si>
-  <si>
-    <t>李熹</t>
-  </si>
-  <si>
-    <t>张纲强</t>
-  </si>
-  <si>
-    <t>韦一</t>
-  </si>
-  <si>
-    <t>叶吉丽</t>
-  </si>
-  <si>
-    <t>蒋权</t>
-  </si>
-  <si>
-    <t>李海滨</t>
-  </si>
-  <si>
-    <t>李文韬</t>
-  </si>
-  <si>
-    <t>唐佳燊</t>
-  </si>
-  <si>
-    <t>黄天城</t>
-  </si>
-  <si>
-    <t>张桂芬</t>
-  </si>
-  <si>
-    <t>梁新宇</t>
-  </si>
-  <si>
-    <t>滕开良</t>
-  </si>
-  <si>
-    <t>童雅俊</t>
-  </si>
-  <si>
-    <t>汤卫东</t>
-  </si>
-  <si>
-    <t>陆美曲</t>
-  </si>
-  <si>
-    <t>张牧行</t>
-  </si>
-  <si>
-    <t>赵地</t>
-  </si>
-  <si>
-    <t>蒋明</t>
-  </si>
-  <si>
-    <t>刘勇</t>
-  </si>
-  <si>
-    <t>覃春芳</t>
-  </si>
-  <si>
-    <t>何建强</t>
-  </si>
-  <si>
-    <t>劳欢</t>
-  </si>
-  <si>
-    <t>梁啸</t>
-  </si>
-  <si>
-    <t>白凤波</t>
-  </si>
-  <si>
-    <t>韦艳艳</t>
-  </si>
-  <si>
-    <t>王哲</t>
-  </si>
-  <si>
-    <t>葛丽娜</t>
-  </si>
-  <si>
-    <t>方郗</t>
-  </si>
-  <si>
-    <t>高广尚</t>
-  </si>
-  <si>
-    <t>杨丽丽</t>
-  </si>
-  <si>
-    <t>文勇</t>
-  </si>
-  <si>
-    <t>蒋荣萍</t>
-  </si>
-  <si>
-    <t>邓艳平</t>
-  </si>
-  <si>
-    <t>裴胜玉</t>
-  </si>
-  <si>
-    <t>石丽芳</t>
-  </si>
-  <si>
-    <t>朱映运</t>
-  </si>
-  <si>
-    <t>吴岸燕</t>
-  </si>
-  <si>
-    <t>李丽娟</t>
-  </si>
-  <si>
-    <t>陆月香</t>
-  </si>
-  <si>
-    <t>胡雪婷</t>
-  </si>
-  <si>
-    <t>蓝艳芳</t>
-  </si>
-  <si>
-    <t>伍琼</t>
-  </si>
-  <si>
-    <t>何转红</t>
-  </si>
-  <si>
-    <t>韦雯</t>
-  </si>
-  <si>
-    <t>刘芳琼</t>
-  </si>
-  <si>
-    <t>贺小燕</t>
-  </si>
-  <si>
-    <t>刘梦颖</t>
-  </si>
-  <si>
-    <t>邹宇灵</t>
-  </si>
-  <si>
-    <t>程文凤</t>
-  </si>
-  <si>
-    <t>覃青必</t>
-  </si>
-  <si>
-    <t>唐维</t>
-  </si>
-  <si>
-    <t>周园</t>
-  </si>
-  <si>
-    <t>尚艳华</t>
-  </si>
-  <si>
-    <t>梁正</t>
-  </si>
-  <si>
-    <t>刘美杏</t>
-  </si>
-  <si>
-    <t>陈彦君</t>
-  </si>
-  <si>
-    <t>柳鸿志</t>
-  </si>
-  <si>
-    <t>刘逸峰</t>
-  </si>
-  <si>
-    <t>朱A</t>
-  </si>
-  <si>
-    <t>朱C</t>
   </si>
   <si>
     <t>小教室</t>
@@ -1273,6 +850,123 @@
   <si>
     <t>37,38,39</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,1,1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>0,1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,-1,-1,0</t>
+  </si>
+  <si>
+    <t>-1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,1,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,0,1,1,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,-1,1,-1</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1411,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1731,7 +1425,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1742,7 +1436,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1753,7 +1447,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1764,7 +1458,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>353</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,7 +1469,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,7 +1480,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>355</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1797,7 +1491,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1808,7 +1502,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>357</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1819,7 +1513,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>358</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2442,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>345</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2882,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>346</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2983,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>347</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3042,7 +2736,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>348</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>349</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3296,7 +2990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+    <sheetView topLeftCell="A108" workbookViewId="0">
       <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
@@ -3316,13 +3010,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>391</v>
+        <v>250</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>380</v>
+        <v>239</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>71</v>
@@ -3337,7 +3031,7 @@
         <v>73</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>359</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3375,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3405,7 +3099,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3435,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3465,7 +3159,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3481,7 +3175,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3495,7 +3189,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3525,7 +3219,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3555,7 +3249,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3615,7 +3309,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3645,7 +3339,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3675,7 +3369,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3691,7 +3385,7 @@
         <v>74</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3705,7 +3399,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3735,7 +3429,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3795,7 +3489,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3825,7 +3519,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3855,7 +3549,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3885,7 +3579,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>366</v>
+        <v>225</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3915,7 +3609,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>226</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3975,7 +3669,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>363</v>
+        <v>222</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -4065,7 +3759,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -4095,7 +3789,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -4111,7 +3805,7 @@
         <v>74</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4125,7 +3819,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -4155,7 +3849,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -4185,7 +3879,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -4215,7 +3909,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>365</v>
+        <v>224</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -4275,7 +3969,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -4305,7 +3999,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -4321,7 +4015,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4335,7 +4029,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>369</v>
+        <v>228</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -4365,7 +4059,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4395,7 +4089,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -4425,7 +4119,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4455,7 +4149,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4515,7 +4209,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4545,7 +4239,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4575,7 +4269,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4605,7 +4299,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4635,7 +4329,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4695,7 +4389,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -4725,7 +4419,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4741,7 +4435,7 @@
         <v>74</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4755,7 +4449,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4785,7 +4479,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4815,7 +4509,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>373</v>
+        <v>232</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4875,7 +4569,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>369</v>
+        <v>228</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4951,7 +4645,7 @@
         <v>74</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -4965,7 +4659,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -4995,7 +4689,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -5025,7 +4719,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>371</v>
+        <v>230</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -5055,7 +4749,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -5085,7 +4779,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -5115,7 +4809,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>374</v>
+        <v>233</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -5145,7 +4839,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -5175,7 +4869,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -5205,7 +4899,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>372</v>
+        <v>231</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -5235,7 +4929,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>375</v>
+        <v>234</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -5325,7 +5019,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>375</v>
+        <v>234</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -5355,7 +5049,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -5371,7 +5065,7 @@
         <v>74</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -5445,7 +5139,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>236</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -5475,7 +5169,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>377</v>
+        <v>236</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -5581,7 +5275,7 @@
         <v>74</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -5595,7 +5289,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -5685,7 +5379,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>379</v>
+        <v>238</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -5715,7 +5409,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -5745,7 +5439,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -5775,7 +5469,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -5805,7 +5499,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -5835,7 +5529,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>382</v>
+        <v>241</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -5865,7 +5559,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>383</v>
+        <v>242</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -5925,7 +5619,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -5955,7 +5649,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -6001,7 +5695,7 @@
         <v>74</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
@@ -6015,7 +5709,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>385</v>
+        <v>244</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -6045,7 +5739,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>386</v>
+        <v>245</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -6105,7 +5799,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>387</v>
+        <v>246</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -6195,7 +5889,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -6211,7 +5905,7 @@
         <v>74</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
@@ -6225,7 +5919,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>388</v>
+        <v>247</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -6255,7 +5949,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>389</v>
+        <v>248</v>
       </c>
       <c r="C99">
         <v>98</v>
@@ -6285,7 +5979,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>390</v>
+        <v>249</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -6315,7 +6009,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>390</v>
+        <v>249</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -6375,7 +6069,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="C103">
         <v>102</v>
@@ -6405,7 +6099,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>392</v>
+        <v>251</v>
       </c>
       <c r="C104">
         <v>103</v>
@@ -6465,7 +6159,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="C106">
         <v>105</v>
@@ -6495,7 +6189,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="C107">
         <v>106</v>
@@ -6525,7 +6219,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>393</v>
+        <v>252</v>
       </c>
       <c r="C108">
         <v>107</v>
@@ -6615,7 +6309,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="C111">
         <v>110</v>
@@ -6631,7 +6325,7 @@
         <v>74</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
@@ -6645,7 +6339,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="C112">
         <v>111</v>
@@ -6675,7 +6369,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="C113">
         <v>112</v>
@@ -6765,7 +6459,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="C116">
         <v>115</v>
@@ -6795,7 +6489,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="C117">
         <v>116</v>
@@ -6825,7 +6519,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="C118">
         <v>117</v>
@@ -6841,7 +6535,7 @@
         <v>74</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="H118" s="3">
         <v>1</v>
@@ -6945,7 +6639,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>396</v>
+        <v>255</v>
       </c>
       <c r="C122">
         <v>121</v>
@@ -6975,7 +6669,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>397</v>
+        <v>256</v>
       </c>
       <c r="C123">
         <v>122</v>
@@ -7125,7 +6819,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>398</v>
+        <v>257</v>
       </c>
       <c r="C128">
         <v>127</v>
@@ -7155,7 +6849,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>399</v>
+        <v>258</v>
       </c>
       <c r="C129">
         <v>128</v>
@@ -7185,7 +6879,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>400</v>
+        <v>259</v>
       </c>
       <c r="C130">
         <v>129</v>
@@ -7248,27 +6942,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7276,10 +6970,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7287,10 +6981,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7298,10 +6992,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7309,10 +7003,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7320,10 +7014,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7331,10 +7025,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7342,10 +7036,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7353,10 +7047,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7364,10 +7058,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7375,10 +7069,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7386,10 +7080,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7397,10 +7091,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7408,10 +7102,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7419,10 +7113,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7430,10 +7124,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7441,10 +7135,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7452,10 +7146,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7463,10 +7157,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7474,10 +7168,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7485,10 +7179,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7496,10 +7190,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -7507,10 +7201,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7518,10 +7212,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7529,10 +7223,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7540,10 +7234,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7551,10 +7245,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7562,10 +7256,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7573,10 +7267,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7584,10 +7278,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7595,10 +7289,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7606,10 +7300,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7617,10 +7311,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7628,10 +7322,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7639,10 +7333,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7650,10 +7344,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7661,10 +7355,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7672,10 +7366,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7683,10 +7377,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7694,10 +7388,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7705,10 +7399,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7716,10 +7410,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -7727,10 +7421,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -7738,10 +7432,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7749,10 +7443,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7763,7 +7457,7 @@
         <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7771,10 +7465,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7782,10 +7476,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7793,10 +7487,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="C49" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -7804,10 +7498,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7815,10 +7509,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -7826,10 +7520,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7837,10 +7531,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7848,10 +7542,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7859,10 +7553,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -7870,10 +7564,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -7881,10 +7575,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -7892,10 +7586,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -7903,10 +7597,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -7914,10 +7608,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7925,10 +7619,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7936,10 +7630,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7947,10 +7641,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7958,10 +7652,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7969,10 +7663,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="C65" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7980,10 +7674,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7991,10 +7685,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>269</v>
       </c>
       <c r="C67" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -8002,10 +7696,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -8013,10 +7707,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -8024,10 +7718,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -8035,10 +7729,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -8046,10 +7740,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -8057,10 +7751,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -8068,10 +7762,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -8079,10 +7773,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -8090,10 +7784,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -8101,10 +7795,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C77" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -8112,10 +7806,434 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="C78" t="s">
-        <v>244</v>
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -8128,48 +8246,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8177,16 +8281,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" t="s">
-        <v>246</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8194,16 +8292,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" t="s">
-        <v>247</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8211,16 +8303,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8228,16 +8314,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>276</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" t="s">
-        <v>249</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8245,16 +8325,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" t="s">
-        <v>250</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8262,16 +8336,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8279,16 +8347,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8296,16 +8358,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8313,16 +8369,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8330,16 +8380,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" t="s">
-        <v>255</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8347,16 +8391,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" t="s">
-        <v>256</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8364,16 +8402,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8381,16 +8413,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" t="s">
-        <v>258</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8398,1444 +8424,934 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>281</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" t="s">
-        <v>164</v>
-      </c>
-      <c r="E33" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" t="s">
-        <v>165</v>
-      </c>
-      <c r="E34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>283</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E35" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>285</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>287</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>288</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>289</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>290</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>292</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s">
-        <v>165</v>
-      </c>
-      <c r="E50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" t="s">
-        <v>165</v>
-      </c>
-      <c r="E55" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" t="s">
-        <v>164</v>
-      </c>
-      <c r="E56" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" t="s">
-        <v>165</v>
-      </c>
-      <c r="E57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
-      </c>
-      <c r="D58" t="s">
-        <v>165</v>
-      </c>
-      <c r="E58" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" t="s">
-        <v>164</v>
-      </c>
-      <c r="E59" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
-      </c>
-      <c r="D61" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
-      </c>
-      <c r="D62" t="s">
-        <v>164</v>
-      </c>
-      <c r="E62" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>296</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" t="s">
-        <v>164</v>
-      </c>
-      <c r="E65" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" t="s">
-        <v>164</v>
-      </c>
-      <c r="E68" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D69" t="s">
-        <v>164</v>
-      </c>
-      <c r="E69" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>298</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>166</v>
-      </c>
-      <c r="E71" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" t="s">
-        <v>164</v>
-      </c>
-      <c r="E72" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" t="s">
-        <v>166</v>
-      </c>
-      <c r="E73" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" t="s">
-        <v>165</v>
-      </c>
-      <c r="E74" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" t="s">
         <v>122</v>
       </c>
-      <c r="C75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D75" t="s">
-        <v>164</v>
-      </c>
-      <c r="E75" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="C76" t="s">
-        <v>80</v>
-      </c>
-      <c r="D76" t="s">
-        <v>164</v>
-      </c>
-      <c r="E76" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D77" t="s">
-        <v>164</v>
-      </c>
-      <c r="E77" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" t="s">
-        <v>165</v>
-      </c>
-      <c r="E78" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
-      </c>
-      <c r="D79" t="s">
-        <v>164</v>
-      </c>
-      <c r="E79" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" t="s">
-        <v>166</v>
-      </c>
-      <c r="E80" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" t="s">
-        <v>164</v>
-      </c>
-      <c r="E81" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
-      </c>
-      <c r="D82" t="s">
-        <v>164</v>
-      </c>
-      <c r="E82" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D84" t="s">
-        <v>166</v>
-      </c>
-      <c r="E84" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" t="s">
-        <v>164</v>
-      </c>
-      <c r="E85" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" t="s">
-        <v>166</v>
-      </c>
-      <c r="E86" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="C87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" t="s">
-        <v>165</v>
-      </c>
-      <c r="E87" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" t="s">
-        <v>165</v>
-      </c>
-      <c r="E88" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>160</v>
-      </c>
-      <c r="D89" t="s">
-        <v>164</v>
-      </c>
-      <c r="E89" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" t="s">
-        <v>165</v>
-      </c>
-      <c r="E90" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>298</v>
       </c>
       <c r="C91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" t="s">
-        <v>166</v>
-      </c>
-      <c r="E91" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" t="s">
-        <v>166</v>
-      </c>
-      <c r="E92" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>161</v>
-      </c>
-      <c r="D93" t="s">
-        <v>164</v>
-      </c>
-      <c r="E93" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="C94" t="s">
-        <v>78</v>
-      </c>
-      <c r="D94" t="s">
-        <v>164</v>
-      </c>
-      <c r="E94" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
-      </c>
-      <c r="D95" t="s">
-        <v>165</v>
-      </c>
-      <c r="E95" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
-      </c>
-      <c r="D96" t="s">
-        <v>165</v>
-      </c>
-      <c r="E96" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" t="s">
-        <v>166</v>
-      </c>
-      <c r="E97" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
-      </c>
-      <c r="D98" t="s">
-        <v>165</v>
-      </c>
-      <c r="E98" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
-      </c>
-      <c r="D99" t="s">
-        <v>164</v>
-      </c>
-      <c r="E99" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
-      </c>
-      <c r="D100" t="s">
-        <v>165</v>
-      </c>
-      <c r="E100" t="s">
-        <v>343</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/small/l_data09.xlsx
+++ b/data/small/l_data09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuzizhuang\Desktop\UCSP_code\small_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DA3A3E-1FEE-41E7-9420-CE466A73C8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D913F44F-0E7D-457D-99A9-7F170312CC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="321">
   <si>
     <t>id</t>
   </si>
@@ -291,24 +291,12 @@
     <t>-1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,-1,0,0,0</t>
-  </si>
-  <si>
     <t>1,0,0,0,0</t>
   </si>
   <si>
-    <t>1,0,0,0,1</t>
-  </si>
-  <si>
     <t>0,1,1,0,0</t>
   </si>
   <si>
-    <t>1,0,0,-1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,1</t>
-  </si>
-  <si>
     <t>0,0,-1,1,1</t>
   </si>
   <si>
@@ -318,9 +306,6 @@
     <t>0,1,0,-1,0</t>
   </si>
   <si>
-    <t>0,0,0,1,-1</t>
-  </si>
-  <si>
     <t>0,0,-1,0,0</t>
   </si>
   <si>
@@ -336,18 +321,12 @@
     <t>1,0,1,0,1</t>
   </si>
   <si>
-    <t>1,0,0,1,1</t>
-  </si>
-  <si>
     <t>0,-1,-1,0,0</t>
   </si>
   <si>
     <t>0,0,1,-1,0</t>
   </si>
   <si>
-    <t>-1,0,0,-1,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,0</t>
   </si>
   <si>
@@ -360,18 +339,12 @@
     <t>-1,0,1,0,0</t>
   </si>
   <si>
-    <t>0,1,-1,0,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,0</t>
   </si>
   <si>
     <t>-1,0,1,0,1</t>
   </si>
   <si>
-    <t>0,-1,1,0,1</t>
-  </si>
-  <si>
     <t>0,0,0,-1,-1</t>
   </si>
   <si>
@@ -379,12 +352,6 @@
   </si>
   <si>
     <t>-1,0,-1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,-1</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,0</t>
   </si>
   <si>
     <t>0,-1,0,0,1</t>
@@ -852,24 +819,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>-1,0,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,0,1,-1</t>
   </si>
   <si>
     <t>-1,0,-1,0,0</t>
   </si>
   <si>
-    <t>-1,-1,0,0,-1</t>
-  </si>
-  <si>
     <t>0,-1,-1,1,-1</t>
   </si>
   <si>
-    <t>0,1,0,1,-1</t>
-  </si>
-  <si>
     <t>-1,0,0,1,0</t>
   </si>
   <si>
@@ -885,81 +843,30 @@
     <t>0,0,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,1,1,0</t>
-  </si>
-  <si>
     <t>-1,1,0,1,0</t>
   </si>
   <si>
-    <t>-1,0,0,1,-1</t>
-  </si>
-  <si>
     <t>-1,1,0,0,0</t>
   </si>
   <si>
     <t>-1,-1,-1,-1,0</t>
   </si>
   <si>
-    <t>0,1,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,-1,-1</t>
-  </si>
-  <si>
     <t>1,0,1,0,-1</t>
   </si>
   <si>
     <t>0,-1,-1,-1,0</t>
   </si>
   <si>
-    <t>1,0,-1,-1,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,-1,1</t>
-  </si>
-  <si>
-    <t>1,0,-1,-1,0</t>
-  </si>
-  <si>
-    <t>-1,-1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,-1,1,0,-1</t>
-  </si>
-  <si>
     <t>1,1,0,-1,-1</t>
   </si>
   <si>
-    <t>1,-1,0,1,0</t>
-  </si>
-  <si>
     <t>-1,1,0,0,1</t>
   </si>
   <si>
-    <t>1,1,0,1,-1</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1</t>
-  </si>
-  <si>
-    <t>0,-1,-1,0,-1</t>
-  </si>
-  <si>
     <t>-1,1,0,-1,1</t>
   </si>
   <si>
-    <t>0,-1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,-1,1,-1,-1</t>
-  </si>
-  <si>
-    <t>0,1,-1,1,0</t>
-  </si>
-  <si>
     <t>1,0,-1,0,-1</t>
   </si>
   <si>
@@ -967,6 +874,165 @@
   </si>
   <si>
     <t>0,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>0,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>0,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,0,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,-1,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,0,1,-1</t>
+  </si>
+  <si>
+    <t>1,-1,1,-1,0</t>
+  </si>
+  <si>
+    <t>1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>0,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,0,0,1,1</t>
+  </si>
+  <si>
+    <t>1,-1,-1,0,0</t>
+  </si>
+  <si>
+    <t>-1,1,0,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,0,0</t>
+  </si>
+  <si>
+    <t>-1,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,0,1</t>
+  </si>
+  <si>
+    <t>-1,0,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,0,1,-1,-1</t>
+  </si>
+  <si>
+    <t>1,1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>-1,0,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,-1</t>
+  </si>
+  <si>
+    <t>1,0,-1,1,-1</t>
+  </si>
+  <si>
+    <t>-1,-1,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,1,0,-1,1</t>
+  </si>
+  <si>
+    <t>-1,0,1,1,-1</t>
+  </si>
+  <si>
+    <t>0,0,-1,0,1</t>
+  </si>
+  <si>
+    <t>0,-1,-1,1,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,-1,0,0</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,-1</t>
+  </si>
+  <si>
+    <t>-1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>0,1,-1,0,-1</t>
+  </si>
+  <si>
+    <t>0,-1,1,-1,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,-1</t>
+  </si>
+  <si>
+    <t>1,-1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,-1,0,-1,-1</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1477,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1425,7 +1491,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1436,7 +1502,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,7 +1513,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,7 +1524,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,7 +1535,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1480,7 +1546,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1491,7 +1557,7 @@
         <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1502,7 +1568,7 @@
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,7 +1579,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2136,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2251,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2576,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2677,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2977,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3010,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>71</v>
@@ -3031,7 +3097,7 @@
         <v>73</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3069,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3099,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3129,7 +3195,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3159,7 +3225,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3175,7 +3241,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -3189,7 +3255,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3219,7 +3285,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -3249,7 +3315,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -3309,7 +3375,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -3339,7 +3405,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3369,7 +3435,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3385,7 +3451,7 @@
         <v>74</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H13" s="3">
         <v>1</v>
@@ -3399,7 +3465,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -3429,7 +3495,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -3489,7 +3555,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -3519,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -3549,7 +3615,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -3579,7 +3645,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -3609,7 +3675,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -3669,7 +3735,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -3759,7 +3825,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -3789,7 +3855,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -3805,7 +3871,7 @@
         <v>74</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -3819,7 +3885,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -3849,7 +3915,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -3879,7 +3945,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -3909,7 +3975,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -3969,7 +4035,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -3999,7 +4065,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -4015,7 +4081,7 @@
         <v>74</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H34" s="3">
         <v>1</v>
@@ -4029,7 +4095,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -4059,7 +4125,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -4089,7 +4155,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -4119,7 +4185,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -4149,7 +4215,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -4209,7 +4275,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -4239,7 +4305,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -4269,7 +4335,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -4299,7 +4365,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -4329,7 +4395,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -4389,7 +4455,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -4419,7 +4485,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -4435,7 +4501,7 @@
         <v>74</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H48" s="3">
         <v>1</v>
@@ -4449,7 +4515,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -4479,7 +4545,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -4509,7 +4575,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -4569,7 +4635,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -4645,7 +4711,7 @@
         <v>74</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H55" s="3">
         <v>1</v>
@@ -4659,7 +4725,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -4689,7 +4755,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -4719,7 +4785,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -4749,7 +4815,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -4779,7 +4845,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -4809,7 +4875,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -4839,7 +4905,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -4869,7 +4935,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -4899,7 +4965,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -4929,7 +4995,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -5019,7 +5085,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -5049,7 +5115,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -5065,7 +5131,7 @@
         <v>74</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H69" s="3">
         <v>1</v>
@@ -5139,7 +5205,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -5169,7 +5235,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -5275,7 +5341,7 @@
         <v>74</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H76" s="3">
         <v>1</v>
@@ -5289,7 +5355,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -5379,7 +5445,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -5409,7 +5475,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -5439,7 +5505,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -5469,7 +5535,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -5499,7 +5565,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -5529,7 +5595,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -5559,7 +5625,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -5619,7 +5685,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -5649,7 +5715,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -5695,7 +5761,7 @@
         <v>74</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H90" s="3">
         <v>1</v>
@@ -5709,7 +5775,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -5739,7 +5805,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -5799,7 +5865,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C94">
         <v>93</v>
@@ -5889,7 +5955,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C97">
         <v>96</v>
@@ -5905,7 +5971,7 @@
         <v>74</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H97" s="3">
         <v>1</v>
@@ -5919,7 +5985,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C98">
         <v>97</v>
@@ -5949,7 +6015,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C99">
         <v>98</v>
@@ -5979,7 +6045,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C100">
         <v>99</v>
@@ -6009,7 +6075,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C101">
         <v>100</v>
@@ -6069,7 +6135,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C103">
         <v>102</v>
@@ -6099,7 +6165,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C104">
         <v>103</v>
@@ -6159,7 +6225,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C106">
         <v>105</v>
@@ -6189,7 +6255,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C107">
         <v>106</v>
@@ -6219,7 +6285,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C108">
         <v>107</v>
@@ -6309,7 +6375,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C111">
         <v>110</v>
@@ -6325,7 +6391,7 @@
         <v>74</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H111" s="3">
         <v>1</v>
@@ -6339,7 +6405,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C112">
         <v>111</v>
@@ -6369,7 +6435,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C113">
         <v>112</v>
@@ -6459,7 +6525,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C116">
         <v>115</v>
@@ -6489,7 +6555,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C117">
         <v>116</v>
@@ -6519,7 +6585,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C118">
         <v>117</v>
@@ -6535,7 +6601,7 @@
         <v>74</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H118" s="3">
         <v>1</v>
@@ -6639,7 +6705,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C122">
         <v>121</v>
@@ -6669,7 +6735,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C123">
         <v>122</v>
@@ -6819,7 +6885,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C128">
         <v>127</v>
@@ -6849,7 +6915,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C129">
         <v>128</v>
@@ -6879,7 +6945,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C130">
         <v>129</v>
@@ -6944,25 +7010,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
     <col min="3" max="3" width="24.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6970,10 +7035,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6981,10 +7046,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6992,10 +7057,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7003,10 +7068,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7014,10 +7079,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7025,10 +7090,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7036,10 +7101,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7047,10 +7112,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7058,10 +7123,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -7069,10 +7134,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -7080,10 +7145,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -7091,10 +7156,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -7102,10 +7167,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -7113,10 +7178,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -7124,10 +7189,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -7135,10 +7200,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7146,10 +7211,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -7157,10 +7222,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -7168,10 +7233,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7179,10 +7244,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7190,10 +7255,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -7201,10 +7266,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7212,10 +7277,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7223,10 +7288,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>312</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7234,10 +7299,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7245,10 +7310,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7256,10 +7321,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7267,10 +7332,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7278,10 +7343,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7289,10 +7354,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7300,10 +7365,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7311,10 +7376,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7322,10 +7387,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>249</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7333,10 +7398,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7344,10 +7409,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7355,10 +7420,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7366,10 +7431,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7377,10 +7442,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7388,10 +7453,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7399,10 +7464,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>316</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7410,10 +7475,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -7421,10 +7486,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -7432,10 +7497,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7443,10 +7508,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7454,10 +7519,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>274</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7465,10 +7530,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7476,10 +7541,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7487,10 +7552,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -7498,10 +7563,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7509,10 +7574,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -7520,10 +7585,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7531,10 +7596,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7542,10 +7607,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7553,10 +7618,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -7564,10 +7629,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -7575,10 +7640,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -7586,10 +7651,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -7600,7 +7665,7 @@
         <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -7608,10 +7673,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7619,10 +7684,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7630,10 +7695,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7641,10 +7706,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7652,10 +7717,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7663,10 +7728,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>268</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7674,10 +7739,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7685,10 +7750,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7696,10 +7761,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7707,10 +7772,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>319</v>
       </c>
       <c r="C69" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7718,10 +7783,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7729,10 +7794,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7740,10 +7805,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7751,10 +7816,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -7762,10 +7827,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -7773,10 +7838,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -7784,10 +7849,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -7795,10 +7860,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>300</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7806,10 +7871,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7817,7 +7882,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -7825,7 +7890,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -7833,7 +7898,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -7841,7 +7906,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -7849,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -7857,7 +7922,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -7865,7 +7930,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -7873,7 +7938,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>313</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -7881,7 +7946,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -7889,7 +7954,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -7897,7 +7962,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -7905,7 +7970,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -7913,7 +7978,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -7921,7 +7986,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -7929,7 +7994,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -7937,7 +8002,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -7945,7 +8010,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -7953,7 +8018,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -7961,7 +8026,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -7969,7 +8034,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -7977,7 +8042,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -7985,7 +8050,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -7993,7 +8058,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -8001,7 +8066,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -8009,7 +8074,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>272</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -8017,7 +8082,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -8025,7 +8090,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -8033,7 +8098,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -8041,7 +8106,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -8049,7 +8114,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -8057,7 +8122,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -8065,7 +8130,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -8073,7 +8138,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -8081,7 +8146,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>273</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -8089,7 +8154,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -8097,7 +8162,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -8105,7 +8170,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -8113,7 +8178,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -8121,7 +8186,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -8129,7 +8194,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -8137,7 +8202,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -8145,7 +8210,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -8153,7 +8218,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -8161,7 +8226,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -8177,7 +8242,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -8185,7 +8250,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -8193,7 +8258,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -8201,7 +8266,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -8209,7 +8274,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>109</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -8217,7 +8282,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -8225,7 +8290,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -8233,7 +8298,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -8246,21 +8311,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="1"/>
@@ -8270,10 +8335,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -8281,10 +8346,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8292,10 +8357,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -8303,10 +8368,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8314,10 +8379,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8325,10 +8390,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8336,10 +8401,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -8347,10 +8412,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8358,10 +8423,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8369,10 +8434,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8380,10 +8445,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8391,10 +8456,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8402,10 +8467,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8413,10 +8478,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>275</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8424,10 +8489,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8435,10 +8500,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8446,10 +8511,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8457,10 +8522,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8468,10 +8533,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8479,10 +8544,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8490,10 +8555,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8501,10 +8566,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8512,10 +8577,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8523,10 +8588,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8534,10 +8599,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8545,10 +8610,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8556,10 +8621,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c r="C28" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8567,10 +8632,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8578,10 +8643,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>276</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8592,7 +8657,7 @@
         <v>281</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8600,10 +8665,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8611,10 +8676,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8622,10 +8687,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8633,10 +8698,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8644,10 +8709,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8655,10 +8720,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8666,10 +8731,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8677,10 +8742,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8688,10 +8753,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8699,10 +8764,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>287</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8710,10 +8775,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8721,10 +8786,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8732,10 +8797,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8743,10 +8808,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8754,10 +8819,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8765,10 +8830,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>291</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8776,10 +8841,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8787,10 +8852,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8798,10 +8863,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8809,10 +8874,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -8820,10 +8885,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8831,10 +8896,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>288</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -8842,10 +8907,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" t="s">
         <v>112</v>
-      </c>
-      <c r="C54" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -8853,10 +8918,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -8864,10 +8929,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -8875,10 +8940,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -8886,10 +8951,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C58" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -8897,10 +8962,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -8908,10 +8973,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -8919,10 +8984,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -8930,10 +8995,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -8941,10 +9006,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -8952,10 +9017,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>257</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -8963,10 +9028,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -8974,10 +9039,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -8985,10 +9050,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -8996,10 +9061,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -9007,10 +9072,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>295</v>
       </c>
       <c r="C69" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -9018,10 +9083,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -9029,10 +9094,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -9040,10 +9105,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -9051,10 +9116,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="C73" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -9062,10 +9127,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -9073,10 +9138,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -9084,10 +9149,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="C76" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -9095,10 +9160,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -9106,10 +9171,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>301</v>
       </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -9117,10 +9182,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="C79" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -9128,10 +9193,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -9139,10 +9204,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -9150,10 +9215,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -9161,10 +9226,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C83" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -9172,10 +9237,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="C84" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -9183,10 +9248,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -9194,10 +9259,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C86" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -9205,10 +9270,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="C87" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -9216,10 +9281,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>308</v>
       </c>
       <c r="C88" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -9227,10 +9292,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>301</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -9238,10 +9303,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -9249,10 +9314,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -9260,10 +9325,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="C92" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -9271,10 +9336,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -9282,10 +9347,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -9293,10 +9358,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -9304,10 +9369,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="C96" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -9315,10 +9380,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="C97" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -9326,10 +9391,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -9337,10 +9402,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>306</v>
       </c>
       <c r="C99" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -9348,10 +9413,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>307</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
